--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149146.5584386227</v>
+        <v>143042.8574936363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22535489.85197797</v>
+        <v>22347244.19548275</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8799595.270685662</v>
+        <v>8797889.414028535</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5630604.754389193</v>
+        <v>5634298.841684788</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.65678759641236</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>221.0061178544904</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -800,7 +800,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>194.5561633951151</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
         <v>161.8425727710037</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>99.04670802187552</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -825,16 +825,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>92.10152058696056</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>2.995605349316488</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -907,7 +907,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.5422858787866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>198.350037323073</v>
+        <v>125.7843231826854</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>347.3478621916883</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>163.6895702815846</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>220.7061624923925</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>170.6830985149694</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>139.0888386908813</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>43.00512213554917</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1463,10 +1463,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>93.11323406457203</v>
+        <v>92.63376431607153</v>
       </c>
       <c r="H12" t="n">
-        <v>52.84233230531351</v>
+        <v>48.21166394479565</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>80.51100496435802</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T12" t="n">
-        <v>140.4611363452985</v>
+        <v>138.5285367888426</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9205141195597</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.66266823451896</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>9.069854537150722</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1612,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>166.6548991966267</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>41.59847586834515</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>70.57149579215756</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.1884404287796</v>
       </c>
       <c r="U16" t="n">
-        <v>207.48950044015</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.3192265349075</v>
+        <v>297.2981460876688</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,10 +1852,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.3865340284475</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.5070987310641</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2086,16 +2086,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>58.57656924428169</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>177.1968041696714</v>
       </c>
       <c r="H20" t="n">
         <v>285.7122430338547</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T20" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>42.22365015105565</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H22" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3606783057509</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>84.95146261550912</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T23" t="n">
-        <v>209.7977684214266</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>387.6917819457112</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>76.0961944204073</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>109.9469050049405</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T25" t="n">
         <v>239.1884404287796</v>
@@ -2535,7 +2535,7 @@
         <v>277.3606783057509</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.148817457118911</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>377.8380518078474</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T26" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.6996702193238</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>70.59977284283288</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S28" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.1884404287796</v>
@@ -2772,7 +2772,7 @@
         <v>277.3606783057509</v>
       </c>
       <c r="V28" t="n">
-        <v>240.278012236971</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2797,19 +2797,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>240.9185721548693</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>356.4153611429849</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>399.3995456585952</v>
       </c>
       <c r="H29" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>255.6996702193238</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I31" t="n">
         <v>86.68250837722755</v>
@@ -3003,13 +3003,13 @@
         <v>161.4284329972273</v>
       </c>
       <c r="T31" t="n">
-        <v>239.1884404287796</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3606783057509</v>
+        <v>99.49072964696488</v>
       </c>
       <c r="V31" t="n">
-        <v>164.8128075569174</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3031,22 +3031,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>133.5031827414706</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>399.3995456585952</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T32" t="n">
-        <v>49.84755799213575</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>107.5534586185654</v>
       </c>
       <c r="F34" t="n">
-        <v>30.44544570136977</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.1924286780001</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.1884404287796</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3268,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>107.806784933799</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T35" t="n">
         <v>214.7935231211468</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>258.6022748070878</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3432,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>162.8772257610394</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,10 +3441,10 @@
         <v>164.1924286780001</v>
       </c>
       <c r="H37" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U37" t="n">
         <v>277.3606783057509</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>94.23393113042545</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>75.7453023816993</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>76.40871009590954</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>73.33219873963382</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3678,7 +3678,7 @@
         <v>164.1924286780001</v>
       </c>
       <c r="H40" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>86.68250837722755</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6378249655963</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U40" t="n">
         <v>277.3606783057509</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,16 +3742,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>399.005838931439</v>
       </c>
       <c r="D41" t="n">
-        <v>130.4961490021134</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>399.3995456585952</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.7844152484321</v>
+        <v>75.84102227313699</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>235.0422886516131</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U43" t="n">
         <v>277.3606783057509</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>40.48927023386167</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>109.6729895567303</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.29628209397734</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7218148893222</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>91.89163974602977</v>
+        <v>92.63376431607153</v>
       </c>
       <c r="H45" t="n">
-        <v>41.04430296570798</v>
+        <v>48.21166394479565</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.82042628441736</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T45" t="n">
-        <v>135.5372539824022</v>
+        <v>138.5285367888426</v>
       </c>
       <c r="U45" t="n">
-        <v>182.8401460722872</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>187.9718236795781</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>53.02459811624369</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2527378018481</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I46" t="n">
-        <v>67.97209018366929</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5190049372437286</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>150.5856664684936</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5300678317505</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3267416342995</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.91199246082674</v>
+        <v>933.1209803825714</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082674</v>
+        <v>933.1209803825714</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082674</v>
+        <v>933.1209803825714</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>507.1440405304289</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>82.01985871982913</v>
       </c>
       <c r="G2" t="n">
         <v>36.91199246082674</v>
@@ -4330,52 +4330,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L2" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M2" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.813716338606</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1622.361120158013</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V2" t="n">
-        <v>1264.871705284263</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W2" t="n">
-        <v>868.4803555846096</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="X2" t="n">
-        <v>456.7603567523568</v>
+        <v>933.1209803825714</v>
       </c>
       <c r="Y2" t="n">
-        <v>456.7603567523568</v>
+        <v>933.1209803825714</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K3" t="n">
-        <v>475.2419029331441</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="L3" t="n">
-        <v>932.027809635875</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M3" t="n">
-        <v>1388.813716338606</v>
+        <v>950.4838058662884</v>
       </c>
       <c r="N3" t="n">
         <v>1388.813716338606</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.4582981609079</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C4" t="n">
-        <v>366.4857350398239</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D4" t="n">
-        <v>203.1689621665946</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E4" t="n">
-        <v>203.1689621665946</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F4" t="n">
-        <v>203.1689621665946</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
         <v>36.91199246082674</v>
@@ -4488,52 +4488,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.415174541641</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V4" t="n">
-        <v>1472.383335564913</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W4" t="n">
-        <v>1197.530931737426</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X4" t="n">
-        <v>954.9670351832315</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.6242668729735</v>
+        <v>1120.371726545416</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.082283114669</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C5" t="n">
-        <v>886.181553127969</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D5" t="n">
-        <v>462.8889323129692</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F5" t="n">
         <v>36.91199246082674</v>
@@ -4579,40 +4579,40 @@
         <v>399.5154512777223</v>
       </c>
       <c r="N5" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="O5" t="n">
         <v>856.3013579804531</v>
       </c>
-      <c r="O5" t="n">
-        <v>1313.087264683184</v>
-      </c>
       <c r="P5" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1769.873171385915</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1732.930647406199</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M6" t="n">
-        <v>765.3953884431487</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N6" t="n">
-        <v>1222.18129514588</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O6" t="n">
-        <v>1678.967201848611</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>953.8849091379171</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C7" t="n">
-        <v>781.9123460168331</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D7" t="n">
-        <v>618.5955731436038</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4761,16 +4761,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V7" t="n">
-        <v>1845.599623041337</v>
+        <v>1563.888155649366</v>
       </c>
       <c r="W7" t="n">
-        <v>1570.74721921385</v>
+        <v>1563.888155649366</v>
       </c>
       <c r="X7" t="n">
-        <v>1370.393646160241</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y7" t="n">
-        <v>1144.050877849983</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>387.7684189170776</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C8" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
         <v>36.91199246082674</v>
@@ -4804,52 +4804,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>475.942330131692</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.257381456703</v>
+        <v>475.942330131692</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>475.942330131692</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U8" t="n">
-        <v>1624.67405208597</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V8" t="n">
-        <v>1624.67405208597</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.67405208597</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X8" t="n">
-        <v>1212.954053253717</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="Y8" t="n">
-        <v>807.6167832086077</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M9" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N9" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O9" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.6805607205508</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
         <v>36.91199246082674</v>
@@ -4968,46 +4968,46 @@
         <v>263.4395936666639</v>
       </c>
       <c r="L10" t="n">
-        <v>594.4940582745251</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M10" t="n">
-        <v>985.6798532447758</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N10" t="n">
-        <v>1363.171364120812</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U10" t="n">
-        <v>1162.151096804462</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V10" t="n">
-        <v>880.4396294124906</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W10" t="n">
-        <v>605.5872255850037</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X10" t="n">
-        <v>363.0233290308088</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.6805607205508</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.3026401727913</v>
+        <v>1356.521800423304</v>
       </c>
       <c r="C11" t="n">
-        <v>71.80886371735554</v>
+        <v>929.6210704366044</v>
       </c>
       <c r="D11" t="n">
-        <v>71.80886371735554</v>
+        <v>506.3284496216047</v>
       </c>
       <c r="E11" t="n">
-        <v>71.80886371735554</v>
+        <v>80.35150976946227</v>
       </c>
       <c r="F11" t="n">
-        <v>71.80886371735554</v>
+        <v>80.35150976946227</v>
       </c>
       <c r="G11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>83.08324166432641</v>
       </c>
       <c r="K11" t="n">
-        <v>493.6978991635576</v>
+        <v>160.5269847736957</v>
       </c>
       <c r="L11" t="n">
-        <v>493.6978991635576</v>
+        <v>262.5993324469879</v>
       </c>
       <c r="M11" t="n">
-        <v>493.6978991635576</v>
+        <v>577.3104891291252</v>
       </c>
       <c r="N11" t="n">
-        <v>950.4838058662885</v>
+        <v>698.7027075776637</v>
       </c>
       <c r="O11" t="n">
-        <v>1407.269712569019</v>
+        <v>1155.488614280395</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1612.274520983126</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1672.31491810962</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="W11" t="n">
-        <v>1449.208273341684</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="X11" t="n">
-        <v>1037.488274509431</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="Y11" t="n">
-        <v>632.1510044643213</v>
+        <v>1356.521800423304</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.035483492282</v>
+        <v>598.8737278266069</v>
       </c>
       <c r="C12" t="n">
-        <v>486.5295800097867</v>
+        <v>481.3678243441117</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>377.5278658593967</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>272.8259321323339</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809131</v>
+        <v>179.1801018152381</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>85.61064291011527</v>
       </c>
       <c r="H12" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>60.70161415287686</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2454862128385</v>
       </c>
       <c r="K12" t="n">
-        <v>493.6978991635576</v>
+        <v>431.7198559162463</v>
       </c>
       <c r="L12" t="n">
-        <v>493.6978991635576</v>
+        <v>542.9838164938224</v>
       </c>
       <c r="M12" t="n">
-        <v>493.6978991635576</v>
+        <v>999.7697231965533</v>
       </c>
       <c r="N12" t="n">
-        <v>493.6978991635576</v>
+        <v>1102.095194783423</v>
       </c>
       <c r="O12" t="n">
-        <v>932.0278096358747</v>
+        <v>1192.092293662094</v>
       </c>
       <c r="P12" t="n">
-        <v>1388.813716338606</v>
+        <v>1261.181276532085</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1717.967183234816</v>
       </c>
       <c r="R12" t="n">
-        <v>1845.599623041337</v>
+        <v>1829.457984644849</v>
       </c>
       <c r="S12" t="n">
-        <v>1764.275375602591</v>
+        <v>1757.129636483525</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.395439900269</v>
+        <v>1617.2018215453</v>
       </c>
       <c r="U12" t="n">
-        <v>1437.627243819906</v>
+        <v>1432.465488154231</v>
       </c>
       <c r="V12" t="n">
-        <v>1232.654104959172</v>
+        <v>1227.492349293497</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.132727792389</v>
+        <v>1030.970972126714</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590523</v>
+        <v>867.4936258933773</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123447</v>
+        <v>727.8007372466697</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.91199246082674</v>
+        <v>380.7463298073503</v>
       </c>
       <c r="C13" t="n">
-        <v>36.91199246082674</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="D13" t="n">
-        <v>36.91199246082674</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E13" t="n">
-        <v>36.91199246082674</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F13" t="n">
         <v>36.91199246082674</v>
@@ -5199,25 +5199,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>94.40332068498475</v>
+        <v>44.61678338715389</v>
       </c>
       <c r="K13" t="n">
-        <v>320.9309218908219</v>
+        <v>178.4671045612458</v>
       </c>
       <c r="L13" t="n">
-        <v>675.6202431852428</v>
+        <v>592.3209781375591</v>
       </c>
       <c r="M13" t="n">
-        <v>695.080641322875</v>
+        <v>1045.887498006714</v>
       </c>
       <c r="N13" t="n">
-        <v>1072.572152198911</v>
+        <v>1086.243536729453</v>
       </c>
       <c r="O13" t="n">
-        <v>1428.000280878674</v>
+        <v>1497.920317658138</v>
       </c>
       <c r="P13" t="n">
-        <v>1718.599492800575</v>
+        <v>1836.64996883394</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5226,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.125227786372</v>
+        <v>1603.995137759741</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.940779286676</v>
+        <v>1323.832836440801</v>
       </c>
       <c r="V13" t="n">
-        <v>870.229311894705</v>
+        <v>1314.671367211356</v>
       </c>
       <c r="W13" t="n">
-        <v>595.376908067218</v>
+        <v>1039.818963383869</v>
       </c>
       <c r="X13" t="n">
-        <v>352.8130115130231</v>
+        <v>797.255066829674</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.4702432027651</v>
+        <v>570.912298519416</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>632.1510044643213</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C14" t="n">
-        <v>205.2502744776214</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D14" t="n">
         <v>36.91199246082674</v>
@@ -5278,25 +5278,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>83.08324166432641</v>
+        <v>474.8124603719526</v>
       </c>
       <c r="K14" t="n">
-        <v>160.5269847736957</v>
+        <v>552.2562034813219</v>
       </c>
       <c r="L14" t="n">
-        <v>262.5993324469879</v>
+        <v>654.328551154614</v>
       </c>
       <c r="M14" t="n">
-        <v>719.3852391497187</v>
+        <v>773.0499887616684</v>
       </c>
       <c r="N14" t="n">
-        <v>1065.112805703361</v>
+        <v>894.4422072102068</v>
       </c>
       <c r="O14" t="n">
-        <v>1521.898712406092</v>
+        <v>1006.902456860406</v>
       </c>
       <c r="P14" t="n">
-        <v>1612.274520983126</v>
+        <v>1463.688363563137</v>
       </c>
       <c r="Q14" t="n">
         <v>1672.31491810962</v>
@@ -5305,25 +5305,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1544.895915800589</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1286.613420629555</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>929.1240057558043</v>
       </c>
       <c r="W14" t="n">
-        <v>1449.208273341684</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="X14" t="n">
-        <v>1037.488274509431</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="Y14" t="n">
-        <v>632.1510044643213</v>
+        <v>887.1053432625264</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>377.2454862128385</v>
       </c>
       <c r="K15" t="n">
-        <v>431.7198559162463</v>
+        <v>462.208890935114</v>
       </c>
       <c r="L15" t="n">
-        <v>888.5057626189771</v>
+        <v>542.9838164938224</v>
       </c>
       <c r="M15" t="n">
-        <v>1136.241920377037</v>
+        <v>999.7697231965533</v>
       </c>
       <c r="N15" t="n">
-        <v>1238.567391963907</v>
+        <v>1102.095194783423</v>
       </c>
       <c r="O15" t="n">
-        <v>1328.564490842577</v>
+        <v>1192.092293662094</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.350397545308</v>
+        <v>1261.181276532085</v>
       </c>
       <c r="Q15" t="n">
-        <v>1823.422683519722</v>
+        <v>1717.967183234816</v>
       </c>
       <c r="R15" t="n">
         <v>1829.457984644849</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.0982704895461</v>
+        <v>108.1963316448243</v>
       </c>
       <c r="C16" t="n">
-        <v>177.0982704895461</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D16" t="n">
-        <v>177.0982704895461</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E16" t="n">
-        <v>177.0982704895461</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F16" t="n">
-        <v>177.0982704895461</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G16" t="n">
-        <v>177.0982704895461</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
         <v>36.91199246082674</v>
@@ -5436,52 +5436,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5385000353748</v>
+        <v>44.61678338715389</v>
       </c>
       <c r="K16" t="n">
-        <v>148.0182345854622</v>
+        <v>70.09651793724139</v>
       </c>
       <c r="L16" t="n">
-        <v>561.8721081617756</v>
+        <v>194.2880552956789</v>
       </c>
       <c r="M16" t="n">
-        <v>601.9031475681085</v>
+        <v>647.8545751648335</v>
       </c>
       <c r="N16" t="n">
-        <v>1040.292109132728</v>
+        <v>1086.243536729453</v>
       </c>
       <c r="O16" t="n">
-        <v>1451.968890061413</v>
+        <v>1497.920317658138</v>
       </c>
       <c r="P16" t="n">
-        <v>1790.698541237215</v>
+        <v>1836.64996883394</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1816.817669064525</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1653.758645835002</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1412.154160553407</v>
+        <v>1603.995137759741</v>
       </c>
       <c r="U16" t="n">
-        <v>1202.568806573457</v>
+        <v>1323.832836440801</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8573391814859</v>
+        <v>1042.12136904883</v>
       </c>
       <c r="W16" t="n">
-        <v>646.0049353539989</v>
+        <v>767.2689652213428</v>
       </c>
       <c r="X16" t="n">
-        <v>403.441038799804</v>
+        <v>524.7050686671479</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0982704895461</v>
+        <v>298.3623003568899</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1738.206464925269</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C17" t="n">
-        <v>1311.305734938569</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D17" t="n">
-        <v>888.013114123569</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E17" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F17" t="n">
         <v>36.91199246082674</v>
@@ -5515,25 +5515,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>83.08324166432641</v>
+        <v>474.8124603719526</v>
       </c>
       <c r="K17" t="n">
-        <v>160.5269847736957</v>
+        <v>552.2562034813219</v>
       </c>
       <c r="L17" t="n">
-        <v>495.8666493504314</v>
+        <v>654.328551154614</v>
       </c>
       <c r="M17" t="n">
-        <v>952.6525560531622</v>
+        <v>773.0499887616684</v>
       </c>
       <c r="N17" t="n">
-        <v>1409.438462755893</v>
+        <v>894.4422072102068</v>
       </c>
       <c r="O17" t="n">
-        <v>1521.898712406092</v>
+        <v>1006.902456860406</v>
       </c>
       <c r="P17" t="n">
-        <v>1612.274520983126</v>
+        <v>1463.688363563137</v>
       </c>
       <c r="Q17" t="n">
         <v>1672.31491810962</v>
@@ -5542,25 +5542,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1544.895915800589</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1544.895915800589</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1187.406500926838</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>1187.406500926838</v>
       </c>
       <c r="X17" t="n">
-        <v>1845.599623041337</v>
+        <v>1187.406500926838</v>
       </c>
       <c r="Y17" t="n">
-        <v>1845.599623041337</v>
+        <v>1187.406500926838</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>60.70161415287686</v>
       </c>
       <c r="J18" t="n">
-        <v>85.14299374324742</v>
+        <v>377.2454862128385</v>
       </c>
       <c r="K18" t="n">
-        <v>139.6173634466552</v>
+        <v>433.8918545072034</v>
       </c>
       <c r="L18" t="n">
-        <v>220.3922890053636</v>
+        <v>514.6667800659118</v>
       </c>
       <c r="M18" t="n">
-        <v>677.1781957080944</v>
+        <v>612.0727993638139</v>
       </c>
       <c r="N18" t="n">
-        <v>840.7618872442683</v>
+        <v>714.3982709506842</v>
       </c>
       <c r="O18" t="n">
-        <v>1297.547793946999</v>
+        <v>804.3953698293544</v>
       </c>
       <c r="P18" t="n">
-        <v>1366.636776816991</v>
+        <v>1261.181276532085</v>
       </c>
       <c r="Q18" t="n">
-        <v>1823.422683519722</v>
+        <v>1717.967183234816</v>
       </c>
       <c r="R18" t="n">
         <v>1829.457984644849</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.308524615031</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C19" t="n">
-        <v>844.3359614939474</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D19" t="n">
-        <v>681.0191886207181</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E19" t="n">
-        <v>514.8109827735716</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F19" t="n">
-        <v>342.949208548132</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G19" t="n">
-        <v>177.0982704895461</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H19" t="n">
         <v>36.91199246082674</v>
@@ -5676,13 +5676,13 @@
         <v>122.5385000353748</v>
       </c>
       <c r="K19" t="n">
-        <v>148.0182345854622</v>
+        <v>395.3008436994843</v>
       </c>
       <c r="L19" t="n">
-        <v>507.0442598689864</v>
+        <v>809.1547172757976</v>
       </c>
       <c r="M19" t="n">
-        <v>960.610779738141</v>
+        <v>1262.721237144952</v>
       </c>
       <c r="N19" t="n">
         <v>1398.99974130276</v>
@@ -5700,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1682.540599811814</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1682.540599811814</v>
+        <v>1704.683361696828</v>
       </c>
       <c r="U19" t="n">
-        <v>1682.540599811814</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V19" t="n">
-        <v>1682.540599811814</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.688195984327</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X19" t="n">
-        <v>1407.688195984327</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y19" t="n">
-        <v>1181.345427674069</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>811.5791994961493</v>
+        <v>1356.521800423304</v>
       </c>
       <c r="C20" t="n">
-        <v>384.6784695094494</v>
+        <v>929.6210704366044</v>
       </c>
       <c r="D20" t="n">
-        <v>325.5102177475487</v>
+        <v>929.6210704366044</v>
       </c>
       <c r="E20" t="n">
-        <v>325.5102177475487</v>
+        <v>929.6210704366044</v>
       </c>
       <c r="F20" t="n">
-        <v>325.5102177475487</v>
+        <v>504.4968886260046</v>
       </c>
       <c r="G20" t="n">
         <v>325.5102177475487</v>
@@ -5752,52 +5752,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>83.08324166432641</v>
+        <v>474.8124603719526</v>
       </c>
       <c r="K20" t="n">
-        <v>539.8691483670573</v>
+        <v>931.5983670746834</v>
       </c>
       <c r="L20" t="n">
-        <v>641.9414960403494</v>
+        <v>1033.670714747976</v>
       </c>
       <c r="M20" t="n">
-        <v>760.6629336474037</v>
+        <v>1152.39215235503</v>
       </c>
       <c r="N20" t="n">
-        <v>882.0551520959422</v>
+        <v>1273.784370803568</v>
       </c>
       <c r="O20" t="n">
-        <v>1338.841058798673</v>
+        <v>1386.244620453767</v>
       </c>
       <c r="P20" t="n">
-        <v>1764.513179260877</v>
+        <v>1476.620429030801</v>
       </c>
       <c r="Q20" t="n">
-        <v>1824.553576387371</v>
+        <v>1672.31491810962</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="T20" t="n">
-        <v>1628.636468373512</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="U20" t="n">
-        <v>1628.636468373512</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="V20" t="n">
-        <v>1628.636468373512</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="W20" t="n">
-        <v>1628.636468373512</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="X20" t="n">
-        <v>1216.916469541259</v>
+        <v>1761.859070468414</v>
       </c>
       <c r="Y20" t="n">
-        <v>811.5791994961493</v>
+        <v>1356.521800423304</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>37.24430830846502</v>
+        <v>60.70161415287686</v>
       </c>
       <c r="J21" t="n">
-        <v>353.7881803684267</v>
+        <v>377.2454862128385</v>
       </c>
       <c r="K21" t="n">
-        <v>445.5777971959203</v>
+        <v>834.0313929155693</v>
       </c>
       <c r="L21" t="n">
-        <v>902.3637038986511</v>
+        <v>933.3804007942291</v>
       </c>
       <c r="M21" t="n">
-        <v>999.7697231965533</v>
+        <v>1030.786420092131</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.095194783423</v>
+        <v>1133.111891679001</v>
       </c>
       <c r="O21" t="n">
-        <v>1192.092293662094</v>
+        <v>1223.108990557672</v>
       </c>
       <c r="P21" t="n">
-        <v>1261.181276532085</v>
+        <v>1679.894897260403</v>
       </c>
       <c r="Q21" t="n">
         <v>1717.967183234816</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.5827595038027</v>
+        <v>937.6584080378118</v>
       </c>
       <c r="C22" t="n">
-        <v>391.6101963827186</v>
+        <v>765.6858449167278</v>
       </c>
       <c r="D22" t="n">
-        <v>391.6101963827186</v>
+        <v>602.3690720434985</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9600447149857</v>
+        <v>602.3690720434985</v>
       </c>
       <c r="F22" t="n">
-        <v>177.0982704895461</v>
+        <v>430.5072978180589</v>
       </c>
       <c r="G22" t="n">
-        <v>177.0982704895461</v>
+        <v>264.6563597594729</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082674</v>
+        <v>124.4700817307536</v>
       </c>
       <c r="I22" t="n">
         <v>36.91199246082674</v>
@@ -5922,40 +5922,40 @@
         <v>937.5169113827094</v>
       </c>
       <c r="N22" t="n">
-        <v>1247.626243924861</v>
+        <v>1375.905872947329</v>
       </c>
       <c r="O22" t="n">
-        <v>1659.303024853546</v>
+        <v>1497.920317658138</v>
       </c>
       <c r="P22" t="n">
-        <v>1685.276471456041</v>
+        <v>1836.64996883394</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>1816.817669064525</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>1816.817669064525</v>
+        <v>1682.540599811814</v>
       </c>
       <c r="T22" t="n">
-        <v>1816.817669064525</v>
+        <v>1682.540599811814</v>
       </c>
       <c r="U22" t="n">
-        <v>1536.655367745584</v>
+        <v>1682.540599811814</v>
       </c>
       <c r="V22" t="n">
-        <v>1254.943900353613</v>
+        <v>1682.540599811814</v>
       </c>
       <c r="W22" t="n">
-        <v>980.0914965261263</v>
+        <v>1596.73104161433</v>
       </c>
       <c r="X22" t="n">
-        <v>980.0914965261263</v>
+        <v>1354.167145060135</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.7487282158684</v>
+        <v>1127.824376749878</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2157.277903701513</v>
+        <v>1326.943289211181</v>
       </c>
       <c r="C23" t="n">
-        <v>1730.377173714813</v>
+        <v>1326.943289211181</v>
       </c>
       <c r="D23" t="n">
-        <v>1307.084552899813</v>
+        <v>903.6506683961816</v>
       </c>
       <c r="E23" t="n">
-        <v>881.1076130476706</v>
+        <v>477.6737285440391</v>
       </c>
       <c r="F23" t="n">
-        <v>455.9834312370709</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="G23" t="n">
         <v>52.54954673343935</v>
@@ -5992,49 +5992,49 @@
         <v>490.4500146445652</v>
       </c>
       <c r="K23" t="n">
-        <v>567.8937577539346</v>
+        <v>819.4408741187912</v>
       </c>
       <c r="L23" t="n">
-        <v>669.9661054272267</v>
+        <v>921.5132217920833</v>
       </c>
       <c r="M23" t="n">
-        <v>788.687543034281</v>
+        <v>1040.234659399138</v>
       </c>
       <c r="N23" t="n">
-        <v>1245.789611238883</v>
+        <v>1161.626877847676</v>
       </c>
       <c r="O23" t="n">
-        <v>1896.090252065195</v>
+        <v>1811.927518673988</v>
       </c>
       <c r="P23" t="n">
-        <v>2546.390892891507</v>
+        <v>1902.303327251021</v>
       </c>
       <c r="Q23" t="n">
-        <v>2606.431290018001</v>
+        <v>2454.19263174025</v>
       </c>
       <c r="R23" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="S23" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="T23" t="n">
-        <v>2415.560398872547</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="U23" t="n">
-        <v>2157.277903701513</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="V23" t="n">
-        <v>2157.277903701513</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="W23" t="n">
-        <v>2157.277903701513</v>
+        <v>2152.128923547821</v>
       </c>
       <c r="X23" t="n">
-        <v>2157.277903701513</v>
+        <v>2152.128923547821</v>
       </c>
       <c r="Y23" t="n">
-        <v>2157.277903701513</v>
+        <v>1746.791653502711</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>528.1323357475674</v>
       </c>
       <c r="M24" t="n">
-        <v>1178.432976573879</v>
+        <v>625.5383550454695</v>
       </c>
       <c r="N24" t="n">
-        <v>1536.446369784353</v>
+        <v>727.8638266323397</v>
       </c>
       <c r="O24" t="n">
-        <v>1626.443468663023</v>
+        <v>817.86092551101</v>
       </c>
       <c r="P24" t="n">
-        <v>1695.532451533015</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q24" t="n">
         <v>1733.604737507429</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1031.946078887644</v>
+        <v>727.0150220459325</v>
       </c>
       <c r="C25" t="n">
-        <v>859.97351576656</v>
+        <v>555.0424589248485</v>
       </c>
       <c r="D25" t="n">
-        <v>696.6567428933307</v>
+        <v>478.1776160759522</v>
       </c>
       <c r="E25" t="n">
-        <v>530.4485370461842</v>
+        <v>311.9694102288057</v>
       </c>
       <c r="F25" t="n">
-        <v>358.5867628207446</v>
+        <v>140.1076360033662</v>
       </c>
       <c r="G25" t="n">
-        <v>192.7358247621587</v>
+        <v>140.1076360033662</v>
       </c>
       <c r="H25" t="n">
-        <v>52.54954673343935</v>
+        <v>140.1076360033662</v>
       </c>
       <c r="I25" t="n">
         <v>52.54954673343935</v>
@@ -6171,28 +6171,28 @@
         <v>2627.477336671968</v>
       </c>
       <c r="R25" t="n">
-        <v>2598.695382695156</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="S25" t="n">
-        <v>2487.637902892186</v>
+        <v>2464.418313442445</v>
       </c>
       <c r="T25" t="n">
-        <v>2246.03341761059</v>
+        <v>2222.813828160849</v>
       </c>
       <c r="U25" t="n">
-        <v>1965.87111629165</v>
+        <v>1942.651526841909</v>
       </c>
       <c r="V25" t="n">
-        <v>1965.87111629165</v>
+        <v>1660.940059449938</v>
       </c>
       <c r="W25" t="n">
-        <v>1691.018712464162</v>
+        <v>1386.087655622451</v>
       </c>
       <c r="X25" t="n">
-        <v>1448.454815909968</v>
+        <v>1143.523759068256</v>
       </c>
       <c r="Y25" t="n">
-        <v>1222.11204759971</v>
+        <v>917.1809907579982</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1326.943289211181</v>
+        <v>1126.236254309497</v>
       </c>
       <c r="C26" t="n">
-        <v>1326.943289211181</v>
+        <v>1126.236254309497</v>
       </c>
       <c r="D26" t="n">
-        <v>903.6506683961816</v>
+        <v>1126.236254309497</v>
       </c>
       <c r="E26" t="n">
-        <v>477.6737285440391</v>
+        <v>1126.236254309497</v>
       </c>
       <c r="F26" t="n">
-        <v>52.54954673343935</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="G26" t="n">
-        <v>52.54954673343935</v>
+        <v>341.1477720201613</v>
       </c>
       <c r="H26" t="n">
         <v>52.54954673343935</v>
@@ -6226,52 +6226,52 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J26" t="n">
-        <v>299.2944504970643</v>
+        <v>490.4500146445652</v>
       </c>
       <c r="K26" t="n">
-        <v>949.5950913233762</v>
+        <v>1140.750655470877</v>
       </c>
       <c r="L26" t="n">
-        <v>1051.667438996668</v>
+        <v>1242.823003144169</v>
       </c>
       <c r="M26" t="n">
-        <v>1170.388876603723</v>
+        <v>1361.544440751223</v>
       </c>
       <c r="N26" t="n">
-        <v>1291.781095052261</v>
+        <v>1482.936659199762</v>
       </c>
       <c r="O26" t="n">
-        <v>1404.24134470246</v>
+        <v>1595.396908849961</v>
       </c>
       <c r="P26" t="n">
-        <v>2054.541985528772</v>
+        <v>1902.303327251021</v>
       </c>
       <c r="Q26" t="n">
-        <v>2606.431290018001</v>
+        <v>2454.19263174025</v>
       </c>
       <c r="R26" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="S26" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="T26" t="n">
-        <v>2410.514182004142</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="U26" t="n">
-        <v>2152.231686833108</v>
+        <v>2285.454288928011</v>
       </c>
       <c r="V26" t="n">
-        <v>2152.231686833108</v>
+        <v>1927.96487405426</v>
       </c>
       <c r="W26" t="n">
-        <v>2152.231686833108</v>
+        <v>1531.573524354607</v>
       </c>
       <c r="X26" t="n">
-        <v>1740.511688000855</v>
+        <v>1531.573524354607</v>
       </c>
       <c r="Y26" t="n">
-        <v>1335.174417955746</v>
+        <v>1126.236254309497</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I27" t="n">
-        <v>52.88186258107763</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J27" t="n">
-        <v>369.4257346410393</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.726375467351</v>
+        <v>769.2749085720043</v>
       </c>
       <c r="L27" t="n">
-        <v>1336.714878899581</v>
+        <v>850.0498341307126</v>
       </c>
       <c r="M27" t="n">
-        <v>1434.120898197483</v>
+        <v>947.4558534286148</v>
       </c>
       <c r="N27" t="n">
-        <v>1536.446369784353</v>
+        <v>1049.781325015485</v>
       </c>
       <c r="O27" t="n">
-        <v>1626.443468663023</v>
+        <v>1139.778423894155</v>
       </c>
       <c r="P27" t="n">
-        <v>1695.532451533015</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q27" t="n">
         <v>1733.604737507429</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.1873952843415</v>
+        <v>861.2920912986424</v>
       </c>
       <c r="C28" t="n">
-        <v>784.2148321632575</v>
+        <v>689.3195281775584</v>
       </c>
       <c r="D28" t="n">
-        <v>784.2148321632575</v>
+        <v>689.3195281775584</v>
       </c>
       <c r="E28" t="n">
         <v>618.006626316111</v>
@@ -6408,28 +6408,28 @@
         <v>2627.477336671967</v>
       </c>
       <c r="R28" t="n">
-        <v>2627.477336671967</v>
+        <v>2598.695382695155</v>
       </c>
       <c r="S28" t="n">
-        <v>2464.418313442445</v>
+        <v>2598.695382695155</v>
       </c>
       <c r="T28" t="n">
-        <v>2222.813828160849</v>
+        <v>2357.09089741356</v>
       </c>
       <c r="U28" t="n">
-        <v>1942.651526841909</v>
+        <v>2076.928596094619</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.946463976281</v>
+        <v>1795.217128702648</v>
       </c>
       <c r="W28" t="n">
-        <v>1425.094060148794</v>
+        <v>1520.364724875161</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.5301635946</v>
+        <v>1277.800828320966</v>
       </c>
       <c r="Y28" t="n">
-        <v>956.1873952843415</v>
+        <v>1051.458060010708</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1957.474842668681</v>
+        <v>1126.236254309497</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.574112681981</v>
+        <v>699.3355243227975</v>
       </c>
       <c r="D29" t="n">
-        <v>1530.574112681981</v>
+        <v>455.9834312370709</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.597172829838</v>
+        <v>455.9834312370709</v>
       </c>
       <c r="F29" t="n">
-        <v>744.5816565237928</v>
+        <v>455.9834312370709</v>
       </c>
       <c r="G29" t="n">
-        <v>341.1477720201613</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="H29" t="n">
         <v>52.54954673343935</v>
@@ -6463,25 +6463,25 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J29" t="n">
-        <v>98.72079593693901</v>
+        <v>490.4500146445652</v>
       </c>
       <c r="K29" t="n">
-        <v>203.136656079228</v>
+        <v>1140.750655470877</v>
       </c>
       <c r="L29" t="n">
-        <v>853.4372969055399</v>
+        <v>1242.823003144169</v>
       </c>
       <c r="M29" t="n">
-        <v>972.1587345125943</v>
+        <v>1361.544440751223</v>
       </c>
       <c r="N29" t="n">
-        <v>1093.550952961133</v>
+        <v>1482.936659199762</v>
       </c>
       <c r="O29" t="n">
-        <v>1743.851593787444</v>
+        <v>1595.396908849961</v>
       </c>
       <c r="P29" t="n">
-        <v>2394.152234613756</v>
+        <v>1902.303327251021</v>
       </c>
       <c r="Q29" t="n">
         <v>2454.19263174025</v>
@@ -6490,25 +6490,25 @@
         <v>2627.477336671967</v>
       </c>
       <c r="S29" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="T29" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="U29" t="n">
-        <v>2369.194841500933</v>
+        <v>2285.454288928011</v>
       </c>
       <c r="V29" t="n">
-        <v>2369.194841500933</v>
+        <v>1927.96487405426</v>
       </c>
       <c r="W29" t="n">
-        <v>2369.194841500933</v>
+        <v>1531.573524354607</v>
       </c>
       <c r="X29" t="n">
-        <v>1957.474842668681</v>
+        <v>1531.573524354607</v>
       </c>
       <c r="Y29" t="n">
-        <v>1957.474842668681</v>
+        <v>1126.236254309497</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I30" t="n">
-        <v>52.88186258107763</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J30" t="n">
-        <v>77.32324217144819</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K30" t="n">
-        <v>131.797611874856</v>
+        <v>769.2749085720043</v>
       </c>
       <c r="L30" t="n">
-        <v>212.5725374335644</v>
+        <v>850.0498341307126</v>
       </c>
       <c r="M30" t="n">
-        <v>309.9785567314665</v>
+        <v>947.4558534286148</v>
       </c>
       <c r="N30" t="n">
-        <v>412.3040283183367</v>
+        <v>1049.781325015485</v>
       </c>
       <c r="O30" t="n">
-        <v>1062.604669144649</v>
+        <v>1139.778423894155</v>
       </c>
       <c r="P30" t="n">
-        <v>1712.90530997096</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q30" t="n">
-        <v>1839.060237792334</v>
+        <v>1733.604737507429</v>
       </c>
       <c r="R30" t="n">
         <v>1845.095538917461</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>813.4669520702655</v>
+        <v>1119.504168157571</v>
       </c>
       <c r="C31" t="n">
-        <v>641.4943889491815</v>
+        <v>947.5316050364868</v>
       </c>
       <c r="D31" t="n">
-        <v>478.1776160759522</v>
+        <v>784.2148321632575</v>
       </c>
       <c r="E31" t="n">
-        <v>311.9694102288057</v>
+        <v>618.006626316111</v>
       </c>
       <c r="F31" t="n">
-        <v>140.1076360033662</v>
+        <v>446.1448520906715</v>
       </c>
       <c r="G31" t="n">
-        <v>140.1076360033662</v>
+        <v>280.2939140320855</v>
       </c>
       <c r="H31" t="n">
         <v>140.1076360033662</v>
@@ -6621,13 +6621,13 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J31" t="n">
-        <v>138.1760543079871</v>
+        <v>138.1760543079874</v>
       </c>
       <c r="K31" t="n">
-        <v>410.9383979720967</v>
+        <v>410.9383979720969</v>
       </c>
       <c r="L31" t="n">
-        <v>824.79227154841</v>
+        <v>824.7922715484103</v>
       </c>
       <c r="M31" t="n">
         <v>1278.358791417565</v>
@@ -6639,7 +6639,7 @@
         <v>2128.424533910869</v>
       </c>
       <c r="P31" t="n">
-        <v>2467.154185086671</v>
+        <v>2467.154185086672</v>
       </c>
       <c r="Q31" t="n">
         <v>2627.477336671967</v>
@@ -6651,22 +6651,22 @@
         <v>2435.636359465633</v>
       </c>
       <c r="T31" t="n">
-        <v>2194.031874184037</v>
+        <v>2435.636359465633</v>
       </c>
       <c r="U31" t="n">
-        <v>1913.869572865097</v>
+        <v>2335.140672953547</v>
       </c>
       <c r="V31" t="n">
-        <v>1747.391989474271</v>
+        <v>2053.429205561576</v>
       </c>
       <c r="W31" t="n">
-        <v>1472.539585646784</v>
+        <v>1778.576801734089</v>
       </c>
       <c r="X31" t="n">
-        <v>1229.975689092589</v>
+        <v>1536.012905179894</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.632920782331</v>
+        <v>1309.670136869637</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2157.277903701513</v>
+        <v>879.4333562626521</v>
       </c>
       <c r="C32" t="n">
-        <v>1730.377173714813</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="D32" t="n">
-        <v>1307.084552899813</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="E32" t="n">
-        <v>881.1076130476706</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="F32" t="n">
-        <v>455.9834312370709</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="G32" t="n">
-        <v>52.54954673343935</v>
+        <v>341.1477720201613</v>
       </c>
       <c r="H32" t="n">
         <v>52.54954673343935</v>
@@ -6703,19 +6703,19 @@
         <v>490.4500146445652</v>
       </c>
       <c r="K32" t="n">
-        <v>567.8937577539346</v>
+        <v>797.3564330456253</v>
       </c>
       <c r="L32" t="n">
-        <v>927.7744097489384</v>
+        <v>899.4287807189174</v>
       </c>
       <c r="M32" t="n">
-        <v>1578.07505057525</v>
+        <v>1018.150218325972</v>
       </c>
       <c r="N32" t="n">
-        <v>1699.467269023789</v>
+        <v>1139.54243677451</v>
       </c>
       <c r="O32" t="n">
-        <v>1811.927518673988</v>
+        <v>1252.002686424709</v>
       </c>
       <c r="P32" t="n">
         <v>1902.303327251021</v>
@@ -6727,25 +6727,25 @@
         <v>2627.477336671967</v>
       </c>
       <c r="S32" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="T32" t="n">
-        <v>2577.126267993042</v>
+        <v>2326.773629431219</v>
       </c>
       <c r="U32" t="n">
-        <v>2577.126267993042</v>
+        <v>2068.491134260185</v>
       </c>
       <c r="V32" t="n">
-        <v>2577.126267993042</v>
+        <v>1711.001719386435</v>
       </c>
       <c r="W32" t="n">
-        <v>2577.126267993042</v>
+        <v>1711.001719386435</v>
       </c>
       <c r="X32" t="n">
-        <v>2577.126267993042</v>
+        <v>1299.281720554182</v>
       </c>
       <c r="Y32" t="n">
-        <v>2577.126267993042</v>
+        <v>1299.281720554182</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>392.8830404854511</v>
       </c>
       <c r="K33" t="n">
-        <v>1043.183681311763</v>
+        <v>769.2749085720043</v>
       </c>
       <c r="L33" t="n">
-        <v>1123.958606870471</v>
+        <v>850.0498341307126</v>
       </c>
       <c r="M33" t="n">
-        <v>1221.364626168373</v>
+        <v>947.4558534286148</v>
       </c>
       <c r="N33" t="n">
-        <v>1323.690097755244</v>
+        <v>1049.781325015485</v>
       </c>
       <c r="O33" t="n">
-        <v>1413.687196633914</v>
+        <v>1139.778423894155</v>
       </c>
       <c r="P33" t="n">
-        <v>1482.776179503905</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q33" t="n">
-        <v>1839.060237792334</v>
+        <v>1733.604737507429</v>
       </c>
       <c r="R33" t="n">
         <v>1845.095538917461</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>978.3953693880603</v>
+        <v>890.0740452754549</v>
       </c>
       <c r="C34" t="n">
-        <v>806.4228062669763</v>
+        <v>718.1014821543708</v>
       </c>
       <c r="D34" t="n">
-        <v>643.106033393747</v>
+        <v>554.7847092811415</v>
       </c>
       <c r="E34" t="n">
-        <v>476.8978275466005</v>
+        <v>446.1448520906715</v>
       </c>
       <c r="F34" t="n">
         <v>446.1448520906715</v>
@@ -6858,13 +6858,13 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J34" t="n">
-        <v>138.1760543079871</v>
+        <v>138.1760543079874</v>
       </c>
       <c r="K34" t="n">
-        <v>410.9383979720967</v>
+        <v>410.9383979720969</v>
       </c>
       <c r="L34" t="n">
-        <v>824.79227154841</v>
+        <v>824.7922715484103</v>
       </c>
       <c r="M34" t="n">
         <v>1278.358791417565</v>
@@ -6876,34 +6876,34 @@
         <v>2128.424533910869</v>
       </c>
       <c r="P34" t="n">
-        <v>2467.154185086671</v>
+        <v>2467.154185086672</v>
       </c>
       <c r="Q34" t="n">
-        <v>2627.477336671967</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="R34" t="n">
-        <v>2598.695382695155</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="S34" t="n">
-        <v>2435.636359465633</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="T34" t="n">
-        <v>2194.031874184037</v>
+        <v>2385.872851390372</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.031874184037</v>
+        <v>2105.710550071431</v>
       </c>
       <c r="V34" t="n">
-        <v>1912.320406792066</v>
+        <v>1823.99908267946</v>
       </c>
       <c r="W34" t="n">
-        <v>1637.468002964579</v>
+        <v>1549.146678851973</v>
       </c>
       <c r="X34" t="n">
-        <v>1394.904106410384</v>
+        <v>1306.582782297779</v>
       </c>
       <c r="Y34" t="n">
-        <v>1168.561338100126</v>
+        <v>1080.240013987521</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>161.445289090812</v>
+        <v>882.8841612237708</v>
       </c>
       <c r="C35" t="n">
-        <v>52.54954673343935</v>
+        <v>455.9834312370709</v>
       </c>
       <c r="D35" t="n">
-        <v>52.54954673343935</v>
+        <v>455.9834312370709</v>
       </c>
       <c r="E35" t="n">
-        <v>52.54954673343935</v>
+        <v>455.9834312370709</v>
       </c>
       <c r="F35" t="n">
-        <v>52.54954673343935</v>
+        <v>455.9834312370709</v>
       </c>
       <c r="G35" t="n">
         <v>52.54954673343935</v>
@@ -6940,22 +6940,22 @@
         <v>490.4500146445652</v>
       </c>
       <c r="K35" t="n">
-        <v>567.8937577539346</v>
+        <v>1140.750655470877</v>
       </c>
       <c r="L35" t="n">
-        <v>890.7148947339005</v>
+        <v>1242.823003144169</v>
       </c>
       <c r="M35" t="n">
-        <v>1541.015535560212</v>
+        <v>1361.544440751223</v>
       </c>
       <c r="N35" t="n">
-        <v>2191.316176386524</v>
+        <v>1482.936659199762</v>
       </c>
       <c r="O35" t="n">
-        <v>2303.776426036723</v>
+        <v>1595.396908849961</v>
       </c>
       <c r="P35" t="n">
-        <v>2394.152234613756</v>
+        <v>1902.303327251021</v>
       </c>
       <c r="Q35" t="n">
         <v>2454.19263174025</v>
@@ -6964,25 +6964,25 @@
         <v>2627.477336671967</v>
       </c>
       <c r="S35" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="T35" t="n">
-        <v>2410.514182004142</v>
+        <v>2326.773629431219</v>
       </c>
       <c r="U35" t="n">
-        <v>2152.231686833108</v>
+        <v>2326.773629431219</v>
       </c>
       <c r="V35" t="n">
-        <v>1794.742271959358</v>
+        <v>1969.284214557469</v>
       </c>
       <c r="W35" t="n">
-        <v>1398.350922259704</v>
+        <v>1708.069795560411</v>
       </c>
       <c r="X35" t="n">
-        <v>986.6309234274518</v>
+        <v>1708.069795560411</v>
       </c>
       <c r="Y35" t="n">
-        <v>581.2936533823421</v>
+        <v>1302.732525515301</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I36" t="n">
-        <v>52.88186258107763</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J36" t="n">
-        <v>77.32324217144819</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K36" t="n">
-        <v>243.8945691187326</v>
+        <v>769.2749085720043</v>
       </c>
       <c r="L36" t="n">
-        <v>894.1952099450446</v>
+        <v>850.0498341307126</v>
       </c>
       <c r="M36" t="n">
-        <v>991.6012292429467</v>
+        <v>947.4558534286148</v>
       </c>
       <c r="N36" t="n">
-        <v>1641.901870069259</v>
+        <v>1049.781325015485</v>
       </c>
       <c r="O36" t="n">
-        <v>1731.898968947929</v>
+        <v>1139.778423894155</v>
       </c>
       <c r="P36" t="n">
-        <v>1800.98795181792</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q36" t="n">
-        <v>1839.060237792334</v>
+        <v>1733.604737507429</v>
       </c>
       <c r="R36" t="n">
         <v>1845.095538917461</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1119.504168157571</v>
+        <v>890.0740452754544</v>
       </c>
       <c r="C37" t="n">
-        <v>947.5316050364868</v>
+        <v>718.1014821543704</v>
       </c>
       <c r="D37" t="n">
-        <v>784.2148321632575</v>
+        <v>554.7847092811411</v>
       </c>
       <c r="E37" t="n">
-        <v>618.006626316111</v>
+        <v>390.2622590174649</v>
       </c>
       <c r="F37" t="n">
-        <v>446.1448520906715</v>
+        <v>218.4004847920253</v>
       </c>
       <c r="G37" t="n">
-        <v>280.2939140320855</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="H37" t="n">
-        <v>140.1076360033662</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="I37" t="n">
         <v>52.54954673343935</v>
       </c>
       <c r="J37" t="n">
-        <v>138.1760543079871</v>
+        <v>138.1760543079874</v>
       </c>
       <c r="K37" t="n">
         <v>410.9383979720967</v>
@@ -7119,28 +7119,28 @@
         <v>2627.477336671967</v>
       </c>
       <c r="R37" t="n">
-        <v>2598.695382695155</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="S37" t="n">
-        <v>2435.636359465633</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="T37" t="n">
-        <v>2435.636359465633</v>
+        <v>2385.872851390372</v>
       </c>
       <c r="U37" t="n">
-        <v>2155.474058146692</v>
+        <v>2105.710550071431</v>
       </c>
       <c r="V37" t="n">
-        <v>1873.762590754721</v>
+        <v>1823.99908267946</v>
       </c>
       <c r="W37" t="n">
-        <v>1778.576801734089</v>
+        <v>1549.146678851973</v>
       </c>
       <c r="X37" t="n">
-        <v>1536.012905179894</v>
+        <v>1306.582782297778</v>
       </c>
       <c r="Y37" t="n">
-        <v>1309.670136869637</v>
+        <v>1080.24001398752</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1328.719837387281</v>
+        <v>1308.00834303437</v>
       </c>
       <c r="C38" t="n">
-        <v>901.8191074005815</v>
+        <v>881.1076130476706</v>
       </c>
       <c r="D38" t="n">
-        <v>478.5264865855818</v>
+        <v>881.1076130476706</v>
       </c>
       <c r="E38" t="n">
-        <v>52.54954673343935</v>
+        <v>881.1076130476706</v>
       </c>
       <c r="F38" t="n">
-        <v>52.54954673343935</v>
+        <v>455.9834312370709</v>
       </c>
       <c r="G38" t="n">
         <v>52.54954673343935</v>
@@ -7174,52 +7174,52 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J38" t="n">
-        <v>323.9230550609871</v>
+        <v>490.4500146445652</v>
       </c>
       <c r="K38" t="n">
-        <v>401.3667981703564</v>
+        <v>1140.750655470877</v>
       </c>
       <c r="L38" t="n">
-        <v>1051.667438996668</v>
+        <v>1242.823003144169</v>
       </c>
       <c r="M38" t="n">
-        <v>1170.388876603723</v>
+        <v>1361.544440751223</v>
       </c>
       <c r="N38" t="n">
-        <v>1291.781095052261</v>
+        <v>1482.936659199762</v>
       </c>
       <c r="O38" t="n">
-        <v>1404.24134470246</v>
+        <v>1595.396908849961</v>
       </c>
       <c r="P38" t="n">
-        <v>2054.541985528772</v>
+        <v>1902.303327251021</v>
       </c>
       <c r="Q38" t="n">
-        <v>2606.431290018001</v>
+        <v>2454.19263174025</v>
       </c>
       <c r="R38" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="S38" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="T38" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="U38" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="V38" t="n">
-        <v>2627.477336671967</v>
+        <v>2186.247369225294</v>
       </c>
       <c r="W38" t="n">
-        <v>2231.085986972314</v>
+        <v>1789.856019525641</v>
       </c>
       <c r="X38" t="n">
-        <v>2153.905471723921</v>
+        <v>1789.856019525641</v>
       </c>
       <c r="Y38" t="n">
-        <v>1748.568201678811</v>
+        <v>1384.518749480531</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I39" t="n">
-        <v>52.88186258107763</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J39" t="n">
-        <v>369.4257346410393</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K39" t="n">
-        <v>423.9001043444471</v>
+        <v>1043.183681311763</v>
       </c>
       <c r="L39" t="n">
-        <v>504.6750299031555</v>
+        <v>1336.714878899581</v>
       </c>
       <c r="M39" t="n">
-        <v>1154.975670729467</v>
+        <v>1434.120898197483</v>
       </c>
       <c r="N39" t="n">
-        <v>1257.301142316338</v>
+        <v>1536.446369784353</v>
       </c>
       <c r="O39" t="n">
-        <v>1731.898968947929</v>
+        <v>1626.443468663023</v>
       </c>
       <c r="P39" t="n">
-        <v>1800.98795181792</v>
+        <v>1695.532451533015</v>
       </c>
       <c r="Q39" t="n">
-        <v>1839.060237792334</v>
+        <v>1733.604737507429</v>
       </c>
       <c r="R39" t="n">
         <v>1845.095538917461</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1119.504168157571</v>
+        <v>890.0740452754544</v>
       </c>
       <c r="C40" t="n">
-        <v>947.5316050364868</v>
+        <v>718.1014821543704</v>
       </c>
       <c r="D40" t="n">
-        <v>784.2148321632575</v>
+        <v>644.0285541345382</v>
       </c>
       <c r="E40" t="n">
-        <v>618.006626316111</v>
+        <v>477.8203482873918</v>
       </c>
       <c r="F40" t="n">
-        <v>446.1448520906715</v>
+        <v>305.9585740619522</v>
       </c>
       <c r="G40" t="n">
-        <v>280.2939140320855</v>
+        <v>140.1076360033662</v>
       </c>
       <c r="H40" t="n">
         <v>140.1076360033662</v>
@@ -7332,13 +7332,13 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J40" t="n">
-        <v>138.1760543079877</v>
+        <v>138.1760543079874</v>
       </c>
       <c r="K40" t="n">
-        <v>410.9383979720974</v>
+        <v>410.9383979720969</v>
       </c>
       <c r="L40" t="n">
-        <v>824.7922715484106</v>
+        <v>824.79227154841</v>
       </c>
       <c r="M40" t="n">
         <v>1278.358791417565</v>
@@ -7356,28 +7356,28 @@
         <v>2627.477336671967</v>
       </c>
       <c r="R40" t="n">
-        <v>2598.695382695155</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="S40" t="n">
-        <v>2598.695382695155</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="T40" t="n">
-        <v>2388.96020596223</v>
+        <v>2385.872851390372</v>
       </c>
       <c r="U40" t="n">
-        <v>2108.797904643289</v>
+        <v>2105.710550071431</v>
       </c>
       <c r="V40" t="n">
-        <v>1827.086437251318</v>
+        <v>1823.99908267946</v>
       </c>
       <c r="W40" t="n">
-        <v>1552.234033423831</v>
+        <v>1549.146678851973</v>
       </c>
       <c r="X40" t="n">
-        <v>1309.670136869637</v>
+        <v>1306.582782297778</v>
       </c>
       <c r="Y40" t="n">
-        <v>1309.670136869637</v>
+        <v>1080.24001398752</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1727.497070107862</v>
+        <v>1147.61785746464</v>
       </c>
       <c r="C41" t="n">
-        <v>1727.497070107862</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="D41" t="n">
-        <v>1595.682778186535</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="E41" t="n">
-        <v>1169.705838334393</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="F41" t="n">
         <v>744.5816565237928</v>
@@ -7411,52 +7411,52 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J41" t="n">
-        <v>98.72079593693901</v>
+        <v>490.4500146445652</v>
       </c>
       <c r="K41" t="n">
-        <v>749.0214367632509</v>
+        <v>1140.750655470877</v>
       </c>
       <c r="L41" t="n">
-        <v>1399.322077589563</v>
+        <v>1242.823003144169</v>
       </c>
       <c r="M41" t="n">
-        <v>1518.043515196617</v>
+        <v>1361.544440751223</v>
       </c>
       <c r="N41" t="n">
-        <v>1639.435733645156</v>
+        <v>1482.936659199762</v>
       </c>
       <c r="O41" t="n">
-        <v>1751.895983295355</v>
+        <v>1595.396908849961</v>
       </c>
       <c r="P41" t="n">
-        <v>2402.196624121666</v>
+        <v>1902.303327251021</v>
       </c>
       <c r="Q41" t="n">
-        <v>2462.237021248161</v>
+        <v>2454.19263174025</v>
       </c>
       <c r="R41" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="S41" t="n">
-        <v>2543.736784099045</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="T41" t="n">
-        <v>2543.736784099045</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="U41" t="n">
-        <v>2543.736784099045</v>
+        <v>2369.194841500933</v>
       </c>
       <c r="V41" t="n">
-        <v>2543.736784099045</v>
+        <v>2369.194841500933</v>
       </c>
       <c r="W41" t="n">
-        <v>2147.345434399392</v>
+        <v>1972.80349180128</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.345434399392</v>
+        <v>1972.80349180128</v>
       </c>
       <c r="Y41" t="n">
-        <v>2147.345434399392</v>
+        <v>1567.46622175617</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I42" t="n">
-        <v>52.88186258107763</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J42" t="n">
-        <v>77.32324217144819</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K42" t="n">
-        <v>131.797611874856</v>
+        <v>686.4142380732688</v>
       </c>
       <c r="L42" t="n">
-        <v>308.0640996997564</v>
+        <v>1336.714878899581</v>
       </c>
       <c r="M42" t="n">
-        <v>958.3647405260683</v>
+        <v>1434.120898197483</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.690212112939</v>
+        <v>1536.446369784353</v>
       </c>
       <c r="O42" t="n">
-        <v>1150.687310991609</v>
+        <v>1626.443468663023</v>
       </c>
       <c r="P42" t="n">
-        <v>1800.98795181792</v>
+        <v>1695.532451533015</v>
       </c>
       <c r="Q42" t="n">
-        <v>1839.060237792334</v>
+        <v>1733.604737507429</v>
       </c>
       <c r="R42" t="n">
         <v>1845.095538917461</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.4211001672683</v>
+        <v>890.0740452754544</v>
       </c>
       <c r="C43" t="n">
-        <v>530.4485370461842</v>
+        <v>718.1014821543704</v>
       </c>
       <c r="D43" t="n">
-        <v>530.4485370461842</v>
+        <v>554.7847092811411</v>
       </c>
       <c r="E43" t="n">
-        <v>530.4485370461842</v>
+        <v>388.5765034339946</v>
       </c>
       <c r="F43" t="n">
-        <v>358.5867628207446</v>
+        <v>216.714729208555</v>
       </c>
       <c r="G43" t="n">
-        <v>192.7358247621587</v>
+        <v>216.714729208555</v>
       </c>
       <c r="H43" t="n">
-        <v>52.54954673343935</v>
+        <v>140.1076360033662</v>
       </c>
       <c r="I43" t="n">
         <v>52.54954673343935</v>
@@ -7593,28 +7593,28 @@
         <v>2627.477336671967</v>
       </c>
       <c r="R43" t="n">
-        <v>2598.695382695155</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="S43" t="n">
-        <v>2435.636359465633</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="T43" t="n">
-        <v>2198.219906282185</v>
+        <v>2385.872851390372</v>
       </c>
       <c r="U43" t="n">
-        <v>1918.057604963245</v>
+        <v>2105.710550071431</v>
       </c>
       <c r="V43" t="n">
-        <v>1636.346137571274</v>
+        <v>1823.99908267946</v>
       </c>
       <c r="W43" t="n">
-        <v>1361.493733743787</v>
+        <v>1549.146678851973</v>
       </c>
       <c r="X43" t="n">
-        <v>1118.929837189592</v>
+        <v>1306.582782297778</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.5870688793339</v>
+        <v>1080.24001398752</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1289.605113160673</v>
+        <v>1753.844019197881</v>
       </c>
       <c r="C44" t="n">
-        <v>862.7043831739734</v>
+        <v>1326.943289211181</v>
       </c>
       <c r="D44" t="n">
-        <v>862.7043831739734</v>
+        <v>903.6506683961816</v>
       </c>
       <c r="E44" t="n">
-        <v>862.7043831739734</v>
+        <v>477.6737285440391</v>
       </c>
       <c r="F44" t="n">
-        <v>437.5802013633736</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="G44" t="n">
-        <v>326.7994038313228</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="H44" t="n">
         <v>52.54954673343935</v>
       </c>
       <c r="I44" t="n">
-        <v>105.4881501123874</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="J44" t="n">
-        <v>268.2043130966792</v>
+        <v>490.4500146445652</v>
       </c>
       <c r="K44" t="n">
-        <v>520.3186708111938</v>
+        <v>797.3564330456253</v>
       </c>
       <c r="L44" t="n">
-        <v>839.0853613344526</v>
+        <v>899.4287807189174</v>
       </c>
       <c r="M44" t="n">
-        <v>1198.921007891995</v>
+        <v>1018.150218325972</v>
       </c>
       <c r="N44" t="n">
-        <v>1565.328915268986</v>
+        <v>1139.54243677451</v>
       </c>
       <c r="O44" t="n">
-        <v>1909.150532147373</v>
+        <v>1252.002686424709</v>
       </c>
       <c r="P44" t="n">
-        <v>2196.987914919257</v>
+        <v>1902.303327251021</v>
       </c>
       <c r="Q44" t="n">
-        <v>2405.313730777049</v>
+        <v>2454.19263174025</v>
       </c>
       <c r="R44" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="S44" t="n">
-        <v>2575.662910314415</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="T44" t="n">
-        <v>2364.832794264594</v>
+        <v>2410.514182004142</v>
       </c>
       <c r="U44" t="n">
-        <v>2106.662382038036</v>
+        <v>2152.231686833108</v>
       </c>
       <c r="V44" t="n">
-        <v>2106.662382038036</v>
+        <v>1794.742271959358</v>
       </c>
       <c r="W44" t="n">
-        <v>2106.662382038036</v>
+        <v>1794.742271959358</v>
       </c>
       <c r="X44" t="n">
-        <v>1694.942383205783</v>
+        <v>1794.742271959358</v>
       </c>
       <c r="Y44" t="n">
-        <v>1289.605113160673</v>
+        <v>1794.742271959358</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>606.5219027566649</v>
+        <v>614.5112820992194</v>
       </c>
       <c r="C45" t="n">
-        <v>489.0159992741696</v>
+        <v>497.0053786167242</v>
       </c>
       <c r="D45" t="n">
-        <v>385.1760407894545</v>
+        <v>393.1654201320093</v>
       </c>
       <c r="E45" t="n">
-        <v>280.4741070623918</v>
+        <v>288.4634864049465</v>
       </c>
       <c r="F45" t="n">
-        <v>186.8282767452959</v>
+        <v>194.8176560878507</v>
       </c>
       <c r="G45" t="n">
-        <v>94.00843861799287</v>
+        <v>101.2481971827279</v>
       </c>
       <c r="H45" t="n">
         <v>52.54954673343935</v>
       </c>
       <c r="I45" t="n">
-        <v>78.17756914283049</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J45" t="n">
-        <v>172.0323009684518</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K45" t="n">
-        <v>345.1451456379812</v>
+        <v>1043.183681311763</v>
       </c>
       <c r="L45" t="n">
-        <v>585.4441416858074</v>
+        <v>1442.170379184486</v>
       </c>
       <c r="M45" t="n">
-        <v>869.0072269802015</v>
+        <v>1539.576398482388</v>
       </c>
       <c r="N45" t="n">
-        <v>1162.416788172853</v>
+        <v>1641.901870069259</v>
       </c>
       <c r="O45" t="n">
-        <v>1427.218497733741</v>
+        <v>1731.898968947929</v>
       </c>
       <c r="P45" t="n">
-        <v>1636.603591722916</v>
+        <v>1800.98795181792</v>
       </c>
       <c r="Q45" t="n">
-        <v>1768.460112572904</v>
+        <v>1839.060237792334</v>
       </c>
       <c r="R45" t="n">
-        <v>1820.111467467225</v>
+        <v>1845.095538917461</v>
       </c>
       <c r="S45" t="n">
-        <v>1761.706996472864</v>
+        <v>1772.767190756137</v>
       </c>
       <c r="T45" t="n">
-        <v>1624.800679318922</v>
+        <v>1632.839375817912</v>
       </c>
       <c r="U45" t="n">
-        <v>1440.113663084289</v>
+        <v>1448.103042426843</v>
       </c>
       <c r="V45" t="n">
-        <v>1235.140524223555</v>
+        <v>1243.12990356611</v>
       </c>
       <c r="W45" t="n">
-        <v>1038.619147056772</v>
+        <v>1046.608526399327</v>
       </c>
       <c r="X45" t="n">
-        <v>875.1418008234352</v>
+        <v>883.1311801659898</v>
       </c>
       <c r="Y45" t="n">
-        <v>735.4489121767276</v>
+        <v>743.4382915192822</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>982.7264649233298</v>
+        <v>953.6532300989849</v>
       </c>
       <c r="C46" t="n">
-        <v>810.7539018022458</v>
+        <v>781.6806669779008</v>
       </c>
       <c r="D46" t="n">
-        <v>647.4371289290165</v>
+        <v>618.3638941046715</v>
       </c>
       <c r="E46" t="n">
-        <v>481.22892308187</v>
+        <v>452.1556882575251</v>
       </c>
       <c r="F46" t="n">
-        <v>309.3671488564304</v>
+        <v>280.2939140320855</v>
       </c>
       <c r="G46" t="n">
-        <v>255.8069487390125</v>
+        <v>280.2939140320855</v>
       </c>
       <c r="H46" t="n">
-        <v>121.2082236866407</v>
+        <v>140.1076360033662</v>
       </c>
       <c r="I46" t="n">
         <v>52.54954673343935</v>
       </c>
       <c r="J46" t="n">
-        <v>181.723760797827</v>
+        <v>138.1760543079871</v>
       </c>
       <c r="K46" t="n">
-        <v>526.0483635515791</v>
+        <v>410.9383979720967</v>
       </c>
       <c r="L46" t="n">
-        <v>1031.477290739161</v>
+        <v>824.79227154841</v>
       </c>
       <c r="M46" t="n">
-        <v>1368.998774119772</v>
+        <v>1278.358791417565</v>
       </c>
       <c r="N46" t="n">
-        <v>1503.612051281945</v>
+        <v>1716.747752982184</v>
       </c>
       <c r="O46" t="n">
-        <v>2002.350647885572</v>
+        <v>2128.424533910869</v>
       </c>
       <c r="P46" t="n">
-        <v>2415.576722764707</v>
+        <v>2467.154185086671</v>
       </c>
       <c r="Q46" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="R46" t="n">
-        <v>2626.95308926061</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="S46" t="n">
-        <v>2474.846355454051</v>
+        <v>2464.418313442445</v>
       </c>
       <c r="T46" t="n">
-        <v>2235.927095017939</v>
+        <v>2222.813828160849</v>
       </c>
       <c r="U46" t="n">
-        <v>1955.799073165112</v>
+        <v>1942.651526841909</v>
       </c>
       <c r="V46" t="n">
-        <v>1674.08760577314</v>
+        <v>1660.940059449938</v>
       </c>
       <c r="W46" t="n">
-        <v>1399.235201945653</v>
+        <v>1386.08765562245</v>
       </c>
       <c r="X46" t="n">
-        <v>1399.235201945653</v>
+        <v>1143.523759068256</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.892433635395</v>
+        <v>1143.523759068256</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>480.0371081600191</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>498.7908651163583</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>465.1567191589064</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
@@ -8069,7 +8069,7 @@
         <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>464.1005135391149</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>60.327324507274</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>70.95688127998122</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>111.5240152033034</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>190.0864181671782</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8388,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>299.4534711317698</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>479.2295883411379</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>456.5787613602907</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8537,7 +8537,7 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>190.8306636765793</v>
+        <v>100.4610141345437</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8555,7 +8555,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>356.3172089945508</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8628,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>126.7901678844537</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>197.9694132071546</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163583</v>
+        <v>347.8036939924564</v>
       </c>
       <c r="P11" t="n">
-        <v>480.3328471358044</v>
+        <v>370.1112102279773</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>30.79700506956333</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>363.0099872776048</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>465.9293750477951</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651629</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.1469440493127</v>
+        <v>422.9430512407243</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>109.4652390141459</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>341.4792617128046</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>226.6013617223275</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>347.8036939924564</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>370.1112102279773</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.0870276969582</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9008,13 +9008,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>30.79700506956331</v>
       </c>
       <c r="L15" t="n">
-        <v>379.809071862649</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>151.84862470723</v>
+        <v>363.0099872776048</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>391.6130543765042</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>422.9430512407243</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>87.60258320534258</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.41558343103524</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>235.6235524277207</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>341.4792617128046</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>338.7815032870631</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>370.1112102279773</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.0870276969582</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9242,31 +9242,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.19393797066374</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>363.0099872776048</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>61.87698984778149</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>370.4937452768289</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>391.6130543765042</v>
       </c>
       <c r="Q18" t="n">
         <v>422.9430512407243</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,16 +9324,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>324.8091366650261</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>96.89137922734226</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>383.1739026195571</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>347.8036939924564</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>338.683143318354</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>137.0243353053787</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>37.6921688122079</v>
+        <v>406.3752898983062</v>
       </c>
       <c r="L21" t="n">
-        <v>379.8090718626489</v>
+        <v>18.76169931308222</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.6130543765042</v>
       </c>
       <c r="Q21" t="n">
-        <v>422.9430512407243</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9570,16 +9570,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>272.4780745650634</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>88.92928089427012</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>254.087996328138</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>339.1008583394586</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>543.2731224001139</v>
       </c>
       <c r="P23" t="n">
-        <v>565.5806386356348</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>558.4794156852624</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>258.2706279026297</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>325.1691902860052</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>202.5996510708336</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>578.6433310272147</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>565.5806386356348</v>
+        <v>218.7177877010372</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>601.8447183059637</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L27" t="n">
-        <v>238.5995736096173</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>27.24456265951483</v>
+        <v>578.6433310272147</v>
       </c>
       <c r="L29" t="n">
-        <v>553.7659526798179</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>543.2731224001139</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>565.5806386356348</v>
+        <v>218.7177877010372</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>565.9631736844865</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>587.0824827841618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.97236550197981</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517232</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>231.780480092617</v>
       </c>
       <c r="L32" t="n">
-        <v>260.4124286077896</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>536.9486901204622</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>565.5806386356348</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10430,7 +10430,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>601.8447183059637</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>321.4260326404191</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517232</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10588,25 +10588,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>578.6433310272147</v>
       </c>
       <c r="L35" t="n">
-        <v>222.9785750572462</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>536.9486901204622</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>534.2509316947207</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>218.7177877010372</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>113.2292497412896</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L36" t="n">
-        <v>575.2785002703066</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>553.510271959032</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517232</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464867</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>227.4770294182304</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>578.6433310272147</v>
       </c>
       <c r="L38" t="n">
-        <v>553.7659526798179</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>565.5806386356348</v>
+        <v>218.7177877010372</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,25 +10898,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>601.8447183059637</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>214.9053252819288</v>
       </c>
       <c r="M39" t="n">
-        <v>558.4794156852624</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>388.485583588809</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>380.1908016072371</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>578.6433310272147</v>
       </c>
       <c r="L41" t="n">
-        <v>553.7659526798179</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>565.580638635635</v>
+        <v>218.7177877010372</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>145.6507765351927</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>241.4715433175858</v>
       </c>
       <c r="L42" t="n">
-        <v>96.45612350120406</v>
+        <v>575.2785002703066</v>
       </c>
       <c r="M42" t="n">
-        <v>558.4794156852624</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>587.0824827841618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961645</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>231.780480092617</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>565.5806386356348</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>116.0212502597854</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>601.8447183059637</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>321.4260326404192</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517232</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11463,10 +11463,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>202.9670603142985</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22555,13 +22555,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>355.6388841900335</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>34.76524245506138</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>89.21760100306948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22713,16 +22713,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>186.7928321310908</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>412.6542752992983</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22795,7 +22795,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22852,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>289.741611465872</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22950,7 +22950,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23001,13 +23001,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>41.78822026557989</v>
+        <v>114.3539344059675</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>75.28386049514455</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -23035,10 +23035,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>237.594327063074</v>
       </c>
     </row>
     <row r="9">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23199,7 +23199,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>56.67644152230631</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>283.5428839959515</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>356.394423523046</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.60164079042603</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>269.8244981809007</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>252.404795410223</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.8289603343114</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>99.68134169771558</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23670,7 +23670,7 @@
         <v>164.1924286780001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I16" t="n">
         <v>86.68250837722755</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>69.87117786560088</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>309.3306541137072</v>
+        <v>118.3517345609459</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>399.3995456585952</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6996702193238</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.87777499649752</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I19" t="n">
         <v>86.68250837722755</v>
@@ -23940,22 +23940,22 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T19" t="n">
-        <v>239.1884404287796</v>
+        <v>99.68134169771554</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3606783057509</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>360.483125362568</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>399.3995456585952</v>
+        <v>222.2027414889237</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U20" t="n">
         <v>255.6996702193238</v>
@@ -24034,7 +24034,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>122.3224736376193</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S22" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.1884404287796</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>187.152417173703</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H23" t="n">
         <v>285.7122430338547</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>4.995754699720237</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>4.735654256945395</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>85.58741072408969</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I25" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S25" t="n">
-        <v>51.48152799228684</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>407.5010631914958</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>43.03488818464632</v>
       </c>
       <c r="G26" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>93.9463509458421</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>38.61634048108039</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>178.1411224519804</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>64.45757884950888</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>214.7935231211468</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>177.869948658786</v>
       </c>
       <c r="V31" t="n">
-        <v>114.081545161134</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>289.1285399453623</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>164.9459651290111</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>56.9926651701096</v>
       </c>
       <c r="F34" t="n">
-        <v>139.6977107818154</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3606783057509</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>314.8249377530339</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25168,7 +25168,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>285.7122430338547</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>133.8251613955688</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.668898027635549</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T37" t="n">
-        <v>239.1884404287796</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>177.8699486587867</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>339.9045782669155</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>285.7122430338547</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>214.7935231211468</v>
@@ -25450,13 +25450,13 @@
         <v>255.6996702193238</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>331.1940887480206</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>88.35140640486317</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S40" t="n">
         <v>161.4284329972273</v>
       </c>
       <c r="T40" t="n">
-        <v>31.55061546318333</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>23.62588375539389</v>
       </c>
       <c r="D41" t="n">
-        <v>288.5635456047363</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T41" t="n">
         <v>214.7935231211468</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25696,7 +25696,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>62.94339297529515</v>
       </c>
       <c r="I43" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T43" t="n">
-        <v>4.146151777166466</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>375.160610414753</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>288.3395296639837</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.2924853453668845</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>110.5456582518134</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444459.5478913527</v>
+        <v>444459.5478913526</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>444459.5478913527</v>
+        <v>444459.5478913526</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>444459.5478913527</v>
+        <v>430246.5164729366</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>430246.5164729368</v>
+        <v>430246.5164729366</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>546444.0255443696</v>
+        <v>546444.0255443694</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518166.7527095842</v>
+        <v>546444.0255443695</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>135314.4327365512</v>
       </c>
       <c r="E2" t="n">
-        <v>135314.4327365512</v>
+        <v>138250.4546503947</v>
       </c>
       <c r="F2" t="n">
-        <v>138250.4546503948</v>
+        <v>138250.4546503946</v>
       </c>
       <c r="G2" t="n">
         <v>138250.4546503946</v>
       </c>
       <c r="H2" t="n">
-        <v>138250.4546503946</v>
+        <v>138250.4546503947</v>
       </c>
       <c r="I2" t="n">
+        <v>173615.3497173729</v>
+      </c>
+      <c r="J2" t="n">
+        <v>173615.3497173729</v>
+      </c>
+      <c r="K2" t="n">
+        <v>173615.349717373</v>
+      </c>
+      <c r="L2" t="n">
         <v>173615.3497173728</v>
-      </c>
-      <c r="J2" t="n">
-        <v>173615.349717373</v>
-      </c>
-      <c r="K2" t="n">
-        <v>173615.3497173727</v>
-      </c>
-      <c r="L2" t="n">
-        <v>173615.349717373</v>
       </c>
       <c r="M2" t="n">
         <v>173615.3497173729</v>
       </c>
       <c r="N2" t="n">
-        <v>173615.349717373</v>
+        <v>173615.3497173729</v>
       </c>
       <c r="O2" t="n">
         <v>173615.3497173728</v>
       </c>
       <c r="P2" t="n">
-        <v>176244.3174329338</v>
+        <v>173615.3497173729</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>179087.6668490387</v>
       </c>
       <c r="F3" t="n">
-        <v>176199.1812608223</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>229638.9127192682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53951.29027979782</v>
+        <v>53951.29027979783</v>
       </c>
       <c r="C4" t="n">
-        <v>53951.29027979782</v>
+        <v>53951.29027979783</v>
       </c>
       <c r="D4" t="n">
-        <v>53951.29027979782</v>
+        <v>53951.29027979783</v>
       </c>
       <c r="E4" t="n">
-        <v>53951.29027979782</v>
+        <v>31255.38079896322</v>
       </c>
       <c r="F4" t="n">
         <v>31255.38079896322</v>
@@ -26447,7 +26447,7 @@
         <v>45407.9139403017</v>
       </c>
       <c r="L4" t="n">
-        <v>45407.91394030171</v>
+        <v>45407.9139403017</v>
       </c>
       <c r="M4" t="n">
         <v>45407.9139403017</v>
@@ -26456,10 +26456,10 @@
         <v>45407.9139403017</v>
       </c>
       <c r="O4" t="n">
-        <v>45407.91394030171</v>
+        <v>45407.9139403017</v>
       </c>
       <c r="P4" t="n">
-        <v>9534.240445467098</v>
+        <v>45407.9139403017</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>32912.58223003062</v>
       </c>
       <c r="F5" t="n">
         <v>32912.58223003062</v>
@@ -26511,7 +26511,7 @@
         <v>44797.1234772162</v>
       </c>
       <c r="P5" t="n">
-        <v>52318.62109323608</v>
+        <v>44797.1234772162</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134943.2924315955</v>
+        <v>-135647.6522530869</v>
       </c>
       <c r="C6" t="n">
-        <v>19682.42818652504</v>
+        <v>18978.06836503356</v>
       </c>
       <c r="D6" t="n">
-        <v>19682.42818652504</v>
+        <v>18978.06836503353</v>
       </c>
       <c r="E6" t="n">
-        <v>53310.02818652505</v>
+        <v>-105693.2238162747</v>
       </c>
       <c r="F6" t="n">
-        <v>-102116.6896394213</v>
+        <v>73394.44303276399</v>
       </c>
       <c r="G6" t="n">
-        <v>74082.49162140081</v>
+        <v>73394.44303276399</v>
       </c>
       <c r="H6" t="n">
-        <v>74082.49162140081</v>
+        <v>73394.44303276401</v>
       </c>
       <c r="I6" t="n">
-        <v>31430.88642826215</v>
+        <v>30939.30947888646</v>
       </c>
       <c r="J6" t="n">
-        <v>-37312.20464290179</v>
+        <v>-37803.78159227769</v>
       </c>
       <c r="K6" t="n">
-        <v>83410.31229985484</v>
+        <v>82918.73535047926</v>
       </c>
       <c r="L6" t="n">
-        <v>83410.31229985505</v>
+        <v>82918.73535047902</v>
       </c>
       <c r="M6" t="n">
-        <v>83410.31229985504</v>
+        <v>82918.73535047914</v>
       </c>
       <c r="N6" t="n">
-        <v>83410.31229985507</v>
+        <v>82918.73535047914</v>
       </c>
       <c r="O6" t="n">
-        <v>83410.31229985488</v>
+        <v>82918.73535047908</v>
       </c>
       <c r="P6" t="n">
-        <v>-115247.4568250375</v>
+        <v>82918.73535047914</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>222.9113743028576</v>
       </c>
       <c r="F3" t="n">
         <v>222.9113743028576</v>
@@ -26779,7 +26779,7 @@
         <v>222.9113743028576</v>
       </c>
       <c r="P3" t="n">
-        <v>567.9342007257879</v>
+        <v>222.9113743028576</v>
       </c>
     </row>
     <row r="4">
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>222.9113743028576</v>
       </c>
       <c r="F3" t="n">
-        <v>222.9113743028576</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>345.0228264229303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>113.9906039355864</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.4154239207968</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>157.3519069469614</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.9871711239019</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>104.1059206119148</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>121.4866989950574</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>114.0780502057275</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.76918315689862</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.03154406240134779</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.08837419989923</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>28.41937308120202</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.717513867579394</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.283152565731809</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H44" t="n">
-        <v>23.3823362138009</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I44" t="n">
-        <v>88.02123929037566</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
-        <v>193.7797200757803</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K44" t="n">
-        <v>290.4255681832079</v>
+        <v>113.9906039355864</v>
       </c>
       <c r="L44" t="n">
-        <v>360.2985985167228</v>
+        <v>141.4154239207968</v>
       </c>
       <c r="M44" t="n">
-        <v>400.9016129575558</v>
+        <v>157.3519069469614</v>
       </c>
       <c r="N44" t="n">
-        <v>407.3886201849414</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O44" t="n">
-        <v>384.6855218594457</v>
+        <v>150.9871711239019</v>
       </c>
       <c r="P44" t="n">
-        <v>328.3201928929416</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.5547916326711</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R44" t="n">
-        <v>143.4190823571509</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S44" t="n">
-        <v>52.02733909161365</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T44" t="n">
-        <v>9.994500356490999</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1826522052585447</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.221594318542261</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H45" t="n">
-        <v>11.79802933960552</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I45" t="n">
-        <v>42.05927807261732</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J45" t="n">
-        <v>115.4138737531528</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K45" t="n">
-        <v>197.2606930954843</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L45" t="n">
-        <v>265.2413453483975</v>
+        <v>104.1059206119148</v>
       </c>
       <c r="M45" t="n">
-        <v>309.5241393955544</v>
+        <v>121.4866989950574</v>
       </c>
       <c r="N45" t="n">
-        <v>317.716322347533</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O45" t="n">
-        <v>290.6483640261492</v>
+        <v>114.0780502057275</v>
       </c>
       <c r="P45" t="n">
-        <v>233.2709361433902</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q45" t="n">
-        <v>155.935443187956</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R45" t="n">
-        <v>75.84600514598355</v>
+        <v>29.76918315689862</v>
       </c>
       <c r="S45" t="n">
-        <v>22.69057867994066</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T45" t="n">
-        <v>4.923882362896216</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0803680472725172</v>
+        <v>0.03154406240134779</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.02414364065306</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H46" t="n">
-        <v>9.105568005079032</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I46" t="n">
-        <v>30.79879239345749</v>
+        <v>12.08837419989923</v>
       </c>
       <c r="J46" t="n">
-        <v>72.40695539417135</v>
+        <v>28.41937308120202</v>
       </c>
       <c r="K46" t="n">
-        <v>118.9868702504191</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L46" t="n">
-        <v>152.2622281749104</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M46" t="n">
-        <v>160.5391708707338</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N46" t="n">
-        <v>156.7219082101179</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O46" t="n">
-        <v>144.7580484079435</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P46" t="n">
-        <v>123.865518138621</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.75806430959398</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R46" t="n">
-        <v>46.04922224245485</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S46" t="n">
-        <v>17.84803053756287</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T46" t="n">
-        <v>4.375886464608528</v>
+        <v>1.717513867579394</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05586238039925789</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>461.3999057603342</v>
@@ -34789,7 +34789,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>442.7574853255732</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.69056852337214</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>76.49136530850697</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="O6" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P6" t="n">
-        <v>168.3155769623496</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35108,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>443.4649875463285</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>419.1474984608589</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35257,7 +35257,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>168.3155769623498</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35336,7 +35336,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>334.3984490988496</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35348,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>317.8900572546842</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603342</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O11" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P11" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K12" t="n">
+        <v>55.02461586202807</v>
+      </c>
+      <c r="L12" t="n">
+        <v>112.3878389672486</v>
+      </c>
+      <c r="M12" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O12" t="n">
-        <v>442.7574853255729</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603342</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q12" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127072</v>
+        <v>7.782617097300157</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937749</v>
+        <v>135.2023446202948</v>
       </c>
       <c r="L13" t="n">
-        <v>358.2720417115361</v>
+        <v>418.0342157336498</v>
       </c>
       <c r="M13" t="n">
-        <v>19.65696781579008</v>
+        <v>458.1479998678329</v>
       </c>
       <c r="N13" t="n">
-        <v>381.3045564404402</v>
+        <v>40.76367547751444</v>
       </c>
       <c r="O13" t="n">
-        <v>359.0183117977405</v>
+        <v>415.8351322511967</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>342.1511628038405</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>9.040054754946556</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K14" t="n">
         <v>78.22600314077711</v>
@@ -35655,19 +35655,19 @@
         <v>103.1033814881739</v>
       </c>
       <c r="M14" t="n">
+        <v>119.9206440475296</v>
+      </c>
+      <c r="N14" t="n">
+        <v>122.6184024732711</v>
+      </c>
+      <c r="O14" t="n">
+        <v>113.5962117678778</v>
+      </c>
+      <c r="P14" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N14" t="n">
-        <v>349.2197641955987</v>
-      </c>
-      <c r="O14" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P14" t="n">
-        <v>91.28869553235688</v>
-      </c>
       <c r="Q14" t="n">
-        <v>60.64686578433751</v>
+        <v>210.7338934812958</v>
       </c>
       <c r="R14" t="n">
         <v>175.035055486583</v>
@@ -35728,13 +35728,13 @@
         <v>319.7412849090522</v>
       </c>
       <c r="K15" t="n">
-        <v>55.02461586202807</v>
+        <v>85.82162093159138</v>
       </c>
       <c r="L15" t="n">
+        <v>81.59083389768524</v>
+      </c>
+      <c r="M15" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M15" t="n">
-        <v>250.2385431899594</v>
       </c>
       <c r="N15" t="n">
         <v>103.3590622089598</v>
@@ -35743,13 +35743,13 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P15" t="n">
+        <v>69.78685138383</v>
+      </c>
+      <c r="Q15" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="Q15" t="n">
-        <v>38.45685451960989</v>
-      </c>
       <c r="R15" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>86.49142179247275</v>
+        <v>7.782617097300157</v>
       </c>
       <c r="K16" t="n">
         <v>25.73710560614898</v>
       </c>
       <c r="L16" t="n">
-        <v>418.0342157336498</v>
+        <v>125.445997331755</v>
       </c>
       <c r="M16" t="n">
-        <v>40.43539333973014</v>
+        <v>458.1479998678329</v>
       </c>
       <c r="N16" t="n">
         <v>442.817132893555</v>
@@ -35825,7 +35825,7 @@
         <v>342.1511628038405</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.4556381859818</v>
+        <v>9.040054754946556</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K17" t="n">
         <v>78.22600314077711</v>
       </c>
       <c r="L17" t="n">
-        <v>338.7269339158946</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O17" t="n">
         <v>113.5962117678778</v>
       </c>
       <c r="P17" t="n">
-        <v>91.28869553235688</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.64686578433751</v>
+        <v>210.7338934812958</v>
       </c>
       <c r="R17" t="n">
         <v>175.035055486583</v>
@@ -35962,31 +35962,31 @@
         <v>24.02992090106073</v>
       </c>
       <c r="J18" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K18" t="n">
-        <v>55.02461586202807</v>
+        <v>57.21855383269181</v>
       </c>
       <c r="L18" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M18" t="n">
+        <v>98.38991848272941</v>
+      </c>
+      <c r="N18" t="n">
+        <v>103.3590622089598</v>
+      </c>
+      <c r="O18" t="n">
+        <v>90.90616048350532</v>
+      </c>
+      <c r="P18" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N18" t="n">
-        <v>165.2360520567413</v>
-      </c>
-      <c r="O18" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P18" t="n">
-        <v>69.78685138383</v>
       </c>
       <c r="Q18" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="R18" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,16 +36044,16 @@
         <v>86.49142179247275</v>
       </c>
       <c r="K19" t="n">
-        <v>25.73710560614898</v>
+        <v>275.5175188526359</v>
       </c>
       <c r="L19" t="n">
-        <v>362.6525507914386</v>
+        <v>418.0342157336498</v>
       </c>
       <c r="M19" t="n">
         <v>458.1479998678329</v>
       </c>
       <c r="N19" t="n">
-        <v>442.817132893555</v>
+        <v>137.6550547048567</v>
       </c>
       <c r="O19" t="n">
         <v>415.8351322511967</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K20" t="n">
         <v>461.3999057603342</v>
@@ -36135,16 +36135,16 @@
         <v>122.6184024732711</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603342</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P20" t="n">
-        <v>429.9718388507109</v>
+        <v>91.28869553235688</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.64686578433751</v>
+        <v>197.6712010897162</v>
       </c>
       <c r="R20" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J21" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K21" t="n">
-        <v>92.71678467423597</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3999057603342</v>
+        <v>100.3525332107675</v>
       </c>
       <c r="M21" t="n">
         <v>98.38991848272941</v>
@@ -36217,10 +36217,10 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P21" t="n">
-        <v>69.78685138383</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3999057603342</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R21" t="n">
         <v>112.6169711212452</v>
@@ -36290,16 +36290,16 @@
         <v>458.1479998678329</v>
       </c>
       <c r="N22" t="n">
-        <v>313.2417500425778</v>
+        <v>442.817132893555</v>
       </c>
       <c r="O22" t="n">
-        <v>415.8351322511967</v>
+        <v>123.2469138493019</v>
       </c>
       <c r="P22" t="n">
-        <v>26.23580464898428</v>
+        <v>342.1511628038405</v>
       </c>
       <c r="Q22" t="n">
-        <v>161.942577358885</v>
+        <v>9.040054754946556</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K23" t="n">
-        <v>78.22600314077711</v>
+        <v>332.3139994689151</v>
       </c>
       <c r="L23" t="n">
         <v>103.1033814881739</v>
@@ -36369,19 +36369,19 @@
         <v>119.9206440475296</v>
       </c>
       <c r="N23" t="n">
-        <v>461.7192608127298</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O23" t="n">
         <v>656.8693341679918</v>
       </c>
       <c r="P23" t="n">
-        <v>656.8693341679918</v>
+        <v>91.28869553235688</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R23" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>81.59083389768524</v>
       </c>
       <c r="M24" t="n">
-        <v>656.8693341679918</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N24" t="n">
-        <v>361.6296901115895</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O24" t="n">
         <v>90.90616048350532</v>
       </c>
       <c r="P24" t="n">
-        <v>69.78685138383</v>
+        <v>394.9560416698352</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R24" t="n">
         <v>112.6169711212452</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>249.2372765289141</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K26" t="n">
         <v>656.8693341679918</v>
@@ -36612,13 +36612,13 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P26" t="n">
-        <v>656.8693341679918</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="Q26" t="n">
         <v>557.4639439285145</v>
       </c>
       <c r="R26" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J27" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K27" t="n">
-        <v>656.8693341679918</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L27" t="n">
-        <v>320.1904075073026</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M27" t="n">
         <v>98.38991848272941</v>
@@ -36694,7 +36694,7 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q27" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R27" t="n">
         <v>112.6169711212452</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K29" t="n">
-        <v>105.4705658002919</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="L29" t="n">
-        <v>656.8693341679918</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M29" t="n">
         <v>119.9206440475296</v>
@@ -36846,13 +36846,13 @@
         <v>122.6184024732711</v>
       </c>
       <c r="O29" t="n">
-        <v>656.8693341679918</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P29" t="n">
-        <v>656.8693341679918</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="Q29" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R29" t="n">
         <v>175.035055486583</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J30" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K30" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L30" t="n">
         <v>81.59083389768524</v>
@@ -36925,16 +36925,16 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O30" t="n">
-        <v>656.8693341679918</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P30" t="n">
-        <v>656.8693341679918</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.4292200215897</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R30" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>86.49142179247248</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K31" t="n">
         <v>275.5175188526359</v>
@@ -37010,7 +37010,7 @@
         <v>342.1511628038405</v>
       </c>
       <c r="Q31" t="n">
-        <v>161.942577358885</v>
+        <v>161.9425773588847</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K32" t="n">
-        <v>78.22600314077711</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="L32" t="n">
-        <v>363.5158100959635</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M32" t="n">
-        <v>656.8693341679918</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N32" t="n">
         <v>122.6184024732711</v>
@@ -37086,7 +37086,7 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P32" t="n">
-        <v>91.28869553235688</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="Q32" t="n">
         <v>557.4639439285145</v>
@@ -37150,7 +37150,7 @@
         <v>319.7412849090522</v>
       </c>
       <c r="K33" t="n">
-        <v>656.8693341679918</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L33" t="n">
         <v>81.59083389768524</v>
@@ -37168,10 +37168,10 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.882887160029</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R33" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>86.49142179247248</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K34" t="n">
         <v>275.5175188526359</v>
@@ -37308,25 +37308,25 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K35" t="n">
-        <v>78.22600314077711</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="L35" t="n">
-        <v>326.0819565454201</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M35" t="n">
-        <v>656.8693341679918</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N35" t="n">
-        <v>656.8693341679918</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O35" t="n">
         <v>113.5962117678778</v>
       </c>
       <c r="P35" t="n">
-        <v>91.28869553235688</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R35" t="n">
         <v>175.035055486583</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J36" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K36" t="n">
-        <v>168.2538656033176</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L36" t="n">
-        <v>656.8693341679918</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M36" t="n">
         <v>98.38991848272941</v>
       </c>
       <c r="N36" t="n">
-        <v>656.8693341679918</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O36" t="n">
         <v>90.90616048350532</v>
@@ -37405,10 +37405,10 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R36" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>86.49142179247248</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K37" t="n">
-        <v>275.5175188526359</v>
+        <v>275.5175188526356</v>
       </c>
       <c r="L37" t="n">
         <v>418.0342157336498</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>274.1146548763109</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K38" t="n">
-        <v>78.22600314077711</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="L38" t="n">
-        <v>656.8693341679918</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M38" t="n">
         <v>119.9206440475296</v>
@@ -37560,13 +37560,13 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P38" t="n">
-        <v>656.8693341679918</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="Q38" t="n">
         <v>557.4639439285145</v>
       </c>
       <c r="R38" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J39" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K39" t="n">
-        <v>55.02461586202807</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="L39" t="n">
-        <v>81.59083389768524</v>
+        <v>296.496159179614</v>
       </c>
       <c r="M39" t="n">
-        <v>656.8693341679918</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N39" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O39" t="n">
-        <v>479.3917440723144</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P39" t="n">
         <v>69.78685138383</v>
@@ -37645,7 +37645,7 @@
         <v>38.45685451960989</v>
       </c>
       <c r="R39" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>275.5175188526359</v>
       </c>
       <c r="L40" t="n">
-        <v>418.0342157336498</v>
+        <v>418.0342157336495</v>
       </c>
       <c r="M40" t="n">
         <v>458.1479998678329</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K41" t="n">
         <v>656.8693341679918</v>
       </c>
       <c r="L41" t="n">
-        <v>656.8693341679918</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M41" t="n">
         <v>119.9206440475296</v>
@@ -37797,13 +37797,13 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P41" t="n">
-        <v>656.8693341679918</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R41" t="n">
-        <v>166.9094095189968</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J42" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K42" t="n">
-        <v>55.02461586202807</v>
+        <v>296.4961591796139</v>
       </c>
       <c r="L42" t="n">
-        <v>178.0469573988893</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="M42" t="n">
-        <v>656.8693341679918</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N42" t="n">
         <v>103.3590622089598</v>
@@ -37876,13 +37876,13 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P42" t="n">
-        <v>656.8693341679918</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q42" t="n">
         <v>38.45685451960989</v>
       </c>
       <c r="R42" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>442.817132893555</v>
       </c>
       <c r="O43" t="n">
-        <v>415.8351322511963</v>
+        <v>415.8351322511967</v>
       </c>
       <c r="P43" t="n">
         <v>342.1511628038405</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>53.47333674641216</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.3597605901938</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K44" t="n">
-        <v>254.6609673883985</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="L44" t="n">
-        <v>321.9865560840998</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M44" t="n">
-        <v>363.470350058124</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N44" t="n">
-        <v>370.1089973504954</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O44" t="n">
-        <v>347.2945625034216</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P44" t="n">
-        <v>290.7448310827103</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.430117028073</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R44" t="n">
-        <v>224.4076827221398</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.88689132261732</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J45" t="n">
-        <v>94.80275941981949</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K45" t="n">
-        <v>174.861459262151</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="L45" t="n">
-        <v>242.7262586341679</v>
+        <v>403.0168665381045</v>
       </c>
       <c r="M45" t="n">
-        <v>286.4273588832264</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N45" t="n">
-        <v>296.3732941339914</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O45" t="n">
-        <v>267.476474303927</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P45" t="n">
-        <v>211.5000949385615</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.1884048989775</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R45" t="n">
-        <v>52.17308575183941</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>130.4790041054421</v>
+        <v>86.49142179247248</v>
       </c>
       <c r="K46" t="n">
-        <v>347.8026290441941</v>
+        <v>275.5175188526359</v>
       </c>
       <c r="L46" t="n">
-        <v>510.5342698864466</v>
+        <v>418.0342157336498</v>
       </c>
       <c r="M46" t="n">
-        <v>340.9307912935465</v>
+        <v>458.1479998678329</v>
       </c>
       <c r="N46" t="n">
-        <v>135.9730072345175</v>
+        <v>442.817132893555</v>
       </c>
       <c r="O46" t="n">
-        <v>503.776360205684</v>
+        <v>415.8351322511967</v>
       </c>
       <c r="P46" t="n">
-        <v>417.4000756354907</v>
+        <v>342.1511628038405</v>
       </c>
       <c r="Q46" t="n">
-        <v>214.0410241487475</v>
+        <v>161.942577358885</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
